--- a/Documents/Data/Religion/Religion.xlsx
+++ b/Documents/Data/Religion/Religion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>A fascinating examination of ethics, religion and psychology, this selection of Schopenhauer's works contains scathing attack on the nature and logic of religion, and an essay on ethics that ranges from the American slavery debate to the vices of Buddhism. Throughout history, some books have changed the world. They have transformed the way we see ourselves - and each other. They have inspired debate, dissent, war and revolution. They have enlightened, outraged, provoked and comforted. They have enriched lives - and destroyed them. Now Penguin brings you the works of the great thinkers, pioneers, radicals and visionaries whose ideas shook civilization and helped make us who we are.</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0072"/>
+      <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,7 +267,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,25 +587,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
-    <col min="9" max="9" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,20 +622,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -636,20 +654,23 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
+        <v>9780141046310</v>
+      </c>
+      <c r="G2" s="7">
         <v>11.45</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>41457</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -665,20 +686,23 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
+        <v>9780340733509</v>
+      </c>
+      <c r="G3" s="7">
         <v>7.43</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>40544</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,20 +718,23 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="11">
+        <v>9781607747307</v>
+      </c>
+      <c r="G4" s="7">
         <v>14.82</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>41926</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -723,20 +750,23 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="11">
+        <v>9780807014295</v>
+      </c>
+      <c r="G5" s="7">
         <v>7.69</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>38882</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -752,20 +782,23 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
+        <v>9780802412706</v>
+      </c>
+      <c r="G6" s="7">
         <v>12.3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>42047</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -781,20 +814,23 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
+        <v>9780446509459</v>
+      </c>
+      <c r="G7" s="7">
         <v>6.64</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>39526</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -810,20 +846,23 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
+        <v>9781846041068</v>
+      </c>
+      <c r="G8" s="7">
         <v>7.78</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>39485</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -839,20 +878,23 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="11">
+        <v>9781400205394</v>
+      </c>
+      <c r="G9" s="7">
         <v>7.32</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>41561</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -868,20 +910,23 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="11">
+        <v>9780553277579</v>
+      </c>
+      <c r="G10" s="8">
         <v>13.34</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>39948</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -897,16 +942,19 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="11">
+        <v>9780141191591</v>
+      </c>
+      <c r="G11" s="7">
         <v>5.23</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>40118</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
     </row>
